--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 38230-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 38230-2018.xlsx", "A 38230-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 38230-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 38230-2018.png", "A 38230-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 38230-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 38230-2018.docx", "A 38230-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 38230-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 38230-2018.docx", "A 38230-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 38230-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 38230-2018.docx", "A 38230-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 38230-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 38230-2018.docx", "A 38230-2018")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 49533-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 49533-2019.xlsx", "A 49533-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 49533-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 49533-2019.png", "A 49533-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 49533-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 49533-2019.docx", "A 49533-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 49533-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 49533-2019.docx", "A 49533-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 49533-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 49533-2019.docx", "A 49533-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 49533-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 49533-2019.docx", "A 49533-2019")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -797,27 +797,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 49530-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 49530-2019.xlsx", "A 49530-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 49530-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 49530-2019.png", "A 49530-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 49530-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 49530-2019.docx", "A 49530-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 49530-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 49530-2019.docx", "A 49530-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 49530-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 49530-2019.docx", "A 49530-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 49530-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 49530-2019.docx", "A 49530-2019")</f>
         <v/>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,27 +882,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 61788-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 61788-2019.xlsx", "A 61788-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 61788-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 61788-2019.png", "A 61788-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 61788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 61788-2019.docx", "A 61788-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 61788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 61788-2019.docx", "A 61788-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 61788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 61788-2019.docx", "A 61788-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 61788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 61788-2019.docx", "A 61788-2019")</f>
         <v/>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -967,27 +967,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 1275-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 1275-2020.xlsx", "A 1275-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 1275-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 1275-2020.png", "A 1275-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 1275-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 1275-2020.docx", "A 1275-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 1275-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 1275-2020.docx", "A 1275-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 1275-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 1275-2020.docx", "A 1275-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 1275-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 1275-2020.docx", "A 1275-2020")</f>
         <v/>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,27 +1052,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 901-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 901-2021.xlsx", "A 901-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 901-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 901-2021.png", "A 901-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 901-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 901-2021.docx", "A 901-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 901-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 901-2021.docx", "A 901-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 901-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 901-2021.docx", "A 901-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 901-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 901-2021.docx", "A 901-2021")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1137,27 +1137,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 12624-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 12624-2021.xlsx", "A 12624-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 12624-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 12624-2021.png", "A 12624-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 12624-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 12624-2021.docx", "A 12624-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 12624-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 12624-2021.docx", "A 12624-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 12624-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 12624-2021.docx", "A 12624-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 12624-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 12624-2021.docx", "A 12624-2021")</f>
         <v/>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,27 +1222,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 48330-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/artfynd/A 48330-2021.xlsx", "A 48330-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 48330-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/kartor/A 48330-2021.png", "A 48330-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 48330-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomål/A 48330-2021.docx", "A 48330-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 48330-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/klagomålsmail/A 48330-2021.docx", "A 48330-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 48330-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsyn/A 48330-2021.docx", "A 48330-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 48330-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AMAL/tillsynsmail/A 48330-2021.docx", "A 48330-2021")</f>
         <v/>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -572,7 +572,7 @@
         <v>43338</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43732</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44206</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44270</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44450</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43315</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43319</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43338</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43403</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43436</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43436</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43452</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43454</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43476</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43479</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43479</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43484</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43484</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43484</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43484</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43487</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>43502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>43502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43532</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43534</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43544</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43557</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43584</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43600</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43616</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43621</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43633</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43635</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43643</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43730</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43737</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43737</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43745</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43747</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43760</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43768</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43776</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43780</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43785</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43785</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43787</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43787</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43816</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43840</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43841</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43860</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43867</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43868</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43881</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43909</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>43917</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>43923</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43923</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43955</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43955</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43969</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43999</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43999</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44029</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44061</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44061</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44071</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44095</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44103</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44103</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44103</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44105</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44105</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44105</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44139</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44151</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44158</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44161</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44166</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44193</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44231</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44242</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44245</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44258</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44270</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44282</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44319</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44325</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44325</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44340</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44341</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44363</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44376</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44376</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44401</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44402</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44402</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44402</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44426</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44438</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44438</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44441</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44476</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44498</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44498</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44504</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44514</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44531</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44532</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44535</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44536</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44603</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44683</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44733</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44733</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44733</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44749</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44780</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44785</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44791</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44797</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44806</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44838</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44866</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44866</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44866</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44876</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44879</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44881</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44901</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44904</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44909</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44931</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44950</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44953</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44958</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44973</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44974</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44977</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44999</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45019</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45019</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45027</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45028</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45028</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45029</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45050</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45065</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45082</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45086</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>45090</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>45093</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>45093</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45098</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45104</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45104</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45112</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45112</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45113</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45114</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45118</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45159</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
